--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.5.ISR_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.5.ISR_exp.xlsx
@@ -1,47 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882BA6D-2053-4787-963A-9B179099FA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="3225" yWindow="45" windowWidth="14400" windowHeight="9435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Proveedores" sheetId="2" r:id="rId2"/>
-    <sheet name="ISR" sheetId="6" r:id="rId3"/>
-    <sheet name="Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Factores" sheetId="5" r:id="rId5"/>
+    <sheet name="Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Factores" sheetId="5" r:id="rId4"/>
+    <sheet name="ISR" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Lista_meses">[2]Variables!$AB$10:$AB$21</definedName>
-    <definedName name="Tabla_mes">[2]Variables!$AB$10:$AC$21</definedName>
+    <definedName name="Lista_meses">[1]Variables!$AB$10:$AB$21</definedName>
+    <definedName name="Tabla_mes">[1]Variables!$AB$10:$AC$21</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -936,13 +943,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1790,7 +1797,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
@@ -1914,7 +1921,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1922,23 +1929,77 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="13" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="13" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="12" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="13" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="13" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -2003,6 +2064,9 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2011,63 +2075,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2106,7 +2113,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2205,7 +2218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2300,7 +2319,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Resultado de imagen para potencia de focos incandescentes"/>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Resultado de imagen para potencia de focos incandescentes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2353,7 +2378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Resultado de imagen para lamparas equivalentes"/>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Resultado de imagen para lamparas equivalentes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2397,35 +2428,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="5">
-          <cell r="N5">
-            <v>0.59799999999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>0.61926999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>0.62709999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2538,6 +2540,35 @@
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="5">
+          <cell r="N5">
+            <v>0.59799999999999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>0.61926999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>0.62709999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2805,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2832,54 +2863,54 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
@@ -2987,7 +3018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:XFB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19401,27 +19432,27 @@
     </row>
     <row r="3" spans="1:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:16382" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="K4" s="79" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="K4" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="81" t="s">
+      <c r="L4" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84" t="s">
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="86"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
     </row>
     <row r="5" spans="1:16382" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -19430,7 +19461,7 @@
       <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="20" t="s">
         <v>53</v>
       </c>
@@ -19510,14 +19541,14 @@
       <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
       <c r="K9" s="36" t="s">
         <v>56</v>
       </c>
@@ -19601,194 +19632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="90"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="90"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="90"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="97"/>
-    </row>
-    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="104">
-        <v>2016</v>
-      </c>
-      <c r="C7" s="114">
-        <v>43524</v>
-      </c>
-      <c r="D7" s="105">
-        <v>100</v>
-      </c>
-      <c r="E7" s="105">
-        <v>11</v>
-      </c>
-      <c r="F7" s="105">
-        <v>780000</v>
-      </c>
-      <c r="G7" s="105">
-        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="H7" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="106">
-        <f>(((D7-E7)/(1-Factores!C10))*1/1000000*Factores!Q10*F7*Variables!P5)*G7/12</f>
-        <v>27331.807104377101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="104">
-        <v>2017</v>
-      </c>
-      <c r="C8" s="114">
-        <v>43524</v>
-      </c>
-      <c r="D8" s="105">
-        <v>18</v>
-      </c>
-      <c r="E8" s="105">
-        <v>10</v>
-      </c>
-      <c r="F8" s="105">
-        <v>125000</v>
-      </c>
-      <c r="G8" s="105">
-        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="106">
-        <f>(((D8-E8)/(1-Factores!C11))*1/1000000*Factores!Q11*F8*Variables!P5)*G8/12</f>
-        <v>49.159403026905814</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111">
-        <f>SUM(I7:I8)</f>
-        <v>27380.966507404006</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:I5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
-      <formula1>Lista_meses</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:EV49"/>
   <sheetViews>
-    <sheetView topLeftCell="U12" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20:AA31"/>
+    <sheetView topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19857,18 +19705,18 @@
       <c r="B4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
       <c r="N4" s="44" t="s">
         <v>73</v>
       </c>
@@ -20216,10 +20064,10 @@
       <c r="P19" s="42">
         <v>20</v>
       </c>
-      <c r="AA19" s="112" t="s">
+      <c r="AA19" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="AB19" s="113" t="s">
+      <c r="AB19" s="88" t="s">
         <v>128</v>
       </c>
     </row>
@@ -21040,20 +20888,20 @@
     <mergeCell ref="C4:L4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="R32" r:id="rId1"/>
-    <hyperlink ref="E32" r:id="rId2"/>
+    <hyperlink ref="R32" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E32" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:Q12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21107,7 +20955,7 @@
       </c>
       <c r="P4" s="62"/>
       <c r="Q4" s="62">
-        <f>[1]Hoja1!$N$5</f>
+        <f>[2]Hoja1!$N$5</f>
         <v>0.59799999999999998</v>
       </c>
     </row>
@@ -21126,7 +20974,7 @@
       </c>
       <c r="P5" s="62"/>
       <c r="Q5" s="62">
-        <f>[1]Hoja1!$N$11</f>
+        <f>[2]Hoja1!$N$11</f>
         <v>0.61926999999999999</v>
       </c>
     </row>
@@ -21145,7 +20993,7 @@
       </c>
       <c r="P6" s="62"/>
       <c r="Q6" s="62">
-        <f>[1]Hoja1!$N$23</f>
+        <f>[2]Hoja1!$N$23</f>
         <v>0.62709999999999999</v>
       </c>
     </row>
@@ -21411,37 +21259,220 @@
       <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="88" t="s">
+      <c r="O25" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="66"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="79">
+        <v>2016</v>
+      </c>
+      <c r="C7" s="89">
+        <v>43524</v>
+      </c>
+      <c r="D7" s="80">
+        <v>100</v>
+      </c>
+      <c r="E7" s="80">
+        <v>11</v>
+      </c>
+      <c r="F7" s="80">
+        <v>780000</v>
+      </c>
+      <c r="G7" s="80">
+        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="81">
+        <f>(((D7-E7)/(1-Factores!C10))*1/1000000*Factores!Q10*F7*Variables!P5)*G7/12</f>
+        <v>27331.807104377101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="79">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="89">
+        <v>43524</v>
+      </c>
+      <c r="D8" s="80">
+        <v>18</v>
+      </c>
+      <c r="E8" s="80">
+        <v>10</v>
+      </c>
+      <c r="F8" s="80">
+        <v>125000</v>
+      </c>
+      <c r="G8" s="80">
+        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="81">
+        <f>(((D8-E8)/(1-Factores!C11))*1/1000000*Factores!Q11*F8*Variables!P5)*G8/12</f>
+        <v>49.159403026905814</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="86">
+        <f>SUM(I7:I8)</f>
+        <v>27380.966507404006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Lista_meses</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>